--- a/Main/test/results/triTest.xlsx
+++ b/Main/test/results/triTest.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.100,0.100</t>
+          <t>0.10000000000000155,0.09999999999999437</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -489,7 +489,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.300,0.100</t>
+          <t>0.29999999999894017,0.10000000000282826</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.500,0.100</t>
+          <t>0.5,0.09999999999999994</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.700,0.100</t>
+          <t>0.7000000000019673,0.09999999999908986</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -558,7 +558,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.100,0.200</t>
+          <t>0.10000000000000003,0.19999999999999998</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.300,0.200</t>
+          <t>0.29999999999999793,0.2000000000000033</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.500,0.200</t>
+          <t>0.5000000000057143,0.19999999999224918</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.700,0.200</t>
+          <t>0.7000000000000001,0.19999999999999996</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.100,0.300</t>
+          <t>0.099999999999999,0.3000000000000009</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -673,7 +673,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.300,0.300</t>
+          <t>0.3000000000000006,0.299999999999999</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.500,0.300</t>
+          <t>0.5000000000000008,0.29999999999999866</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.700,0.300</t>
+          <t>0.6999999999999429,0.3000000000000657</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.100,0.400</t>
+          <t>0.09999999999113385,0.4000000000109413</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.300,0.400</t>
+          <t>0.3000000000002207,0.39999999999651253</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.500,0.400</t>
+          <t>0.5000000000000012,0.39999999999999875</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.700,0.400</t>
+          <t>0.700000000000709,0.4000000000020868</t>
         </is>
       </c>
       <c r="D17" t="n">
